--- a/ViberBot_Amat/user_data/abonent.xlsx
+++ b/ViberBot_Amat/user_data/abonent.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7804" uniqueCount="1553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7810" uniqueCount="1554">
   <si>
     <t>С.Закори</t>
   </si>
@@ -4678,6 +4678,9 @@
   </si>
   <si>
     <t>38099-947-65-50</t>
+  </si>
+  <si>
+    <t>38099-9476550</t>
   </si>
 </sst>
 </file>
@@ -5215,10 +5218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R568"/>
+  <dimension ref="A1:R569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I560" workbookViewId="0">
-      <selection activeCell="K568" sqref="K568"/>
+    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
+      <selection activeCell="A569" sqref="A569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -32472,6 +32475,54 @@
         <v>456.78</v>
       </c>
       <c r="R568" s="9"/>
+    </row>
+    <row r="569" spans="1:18">
+      <c r="A569" s="2">
+        <v>25</v>
+      </c>
+      <c r="B569" s="3">
+        <v>999</v>
+      </c>
+      <c r="C569" s="4">
+        <v>8.16</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="G569" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H569" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I569" s="34">
+        <v>25</v>
+      </c>
+      <c r="J569" s="34">
+        <v>12</v>
+      </c>
+      <c r="K569" s="35" t="s">
+        <v>1553</v>
+      </c>
+      <c r="L569" s="9"/>
+      <c r="M569" s="26">
+        <v>6543.21</v>
+      </c>
+      <c r="N569" s="9"/>
+      <c r="O569" s="35">
+        <v>987.65</v>
+      </c>
+      <c r="P569" s="9"/>
+      <c r="Q569" s="35">
+        <v>123.45</v>
+      </c>
+      <c r="R569" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L567">

--- a/ViberBot_Amat/user_data/abonent.xlsx
+++ b/ViberBot_Amat/user_data/abonent.xlsx
@@ -5220,8 +5220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
-      <selection activeCell="A569" sqref="A569"/>
+    <sheetView tabSelected="1" topLeftCell="B560" workbookViewId="0">
+      <selection activeCell="R569" sqref="R569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -32466,15 +32466,21 @@
       <c r="M568" s="26">
         <v>1234.56</v>
       </c>
-      <c r="N568" s="9"/>
+      <c r="N568" s="9">
+        <v>1234.56</v>
+      </c>
       <c r="O568" s="35">
         <v>123.45</v>
       </c>
-      <c r="P568" s="9"/>
+      <c r="P568" s="9">
+        <v>123.45</v>
+      </c>
       <c r="Q568" s="35">
         <v>456.78</v>
       </c>
-      <c r="R568" s="9"/>
+      <c r="R568" s="9">
+        <v>456.78</v>
+      </c>
     </row>
     <row r="569" spans="1:18">
       <c r="A569" s="2">
